--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD3B51C-23E2-4EE8-841D-C604C1F6C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C613A-FF7B-4305-80EE-F211174655BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{CED2D93D-E881-40E1-9BB1-84FD99912EB1}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{ABDD9857-46D1-4521-B26E-0686052AFD48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C6E25-3F0A-4874-9B26-C414C79E354E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9299A336-61EA-41BE-B52E-271A66DDFA57}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C613A-FF7B-4305-80EE-F211174655BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67362CA-F3EE-4F40-B0E4-C3DC340DCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{ABDD9857-46D1-4521-B26E-0686052AFD48}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{8B6604C8-B19B-4266-9FA5-B9E9795E6A3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9299A336-61EA-41BE-B52E-271A66DDFA57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4403EAF6-98B3-4ABF-B9FA-E56017BD1281}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1.3897950206719877E-2</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67362CA-F3EE-4F40-B0E4-C3DC340DCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E11C3-78FA-452A-B062-1FFE4EAAF7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{8B6604C8-B19B-4266-9FA5-B9E9795E6A3A}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{6CE7B7BB-4B2F-4F4F-974E-CBADA4C5DB30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4403EAF6-98B3-4ABF-B9FA-E56017BD1281}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2B5068-4B7E-4D91-84D2-74555FC8FA7B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.3897950206719877E-2</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E11C3-78FA-452A-B062-1FFE4EAAF7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6260FB7B-9DC9-4102-837C-0D880FE070A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{6CE7B7BB-4B2F-4F4F-974E-CBADA4C5DB30}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{26FB5803-226A-4036-B6A5-325BD18F2099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2B5068-4B7E-4D91-84D2-74555FC8FA7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50CD2C3-C250-411E-A623-E6BE01701724}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
